--- a/data/trans_orig/P6713-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>15539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8886</v>
+        <v>9181</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26350</v>
+        <v>25219</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1225096026108852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07005661462482367</v>
+        <v>0.07238540027675827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2077405100183318</v>
+        <v>0.1988247861883053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>10874</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5464</v>
+        <v>5173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18449</v>
+        <v>17641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1260281169519168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06332368942198212</v>
+        <v>0.05994980357104261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2138145188958433</v>
+        <v>0.2044495734133913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -784,19 +784,19 @@
         <v>26413</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17124</v>
+        <v>17863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37798</v>
+        <v>38619</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1239340716302132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08034583072828007</v>
+        <v>0.08381712433075796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1773530049806632</v>
+        <v>0.1812045019092695</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>3129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8136</v>
+        <v>8590</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02466875819465502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007091753236477569</v>
+        <v>0.007055261991178017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06414533124558056</v>
+        <v>0.06772595992834815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6880</v>
+        <v>7460</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02502894245555142</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07973206148876676</v>
+        <v>0.08645456965954974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -855,19 +855,19 @@
         <v>5289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2028</v>
+        <v>2006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11290</v>
+        <v>11055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02481457863793508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009517570481771005</v>
+        <v>0.009412573852811587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05297210051417715</v>
+        <v>0.05187274176593509</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>17333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9877</v>
+        <v>11079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26250</v>
+        <v>27264</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.136649633453284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07786666529505651</v>
+        <v>0.08734789121886746</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2069497296059303</v>
+        <v>0.214947597143741</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -905,19 +905,19 @@
         <v>18251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11480</v>
+        <v>11502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27592</v>
+        <v>26413</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.211528889667505</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1330506864514557</v>
+        <v>0.1333070638282139</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3197812230792605</v>
+        <v>0.3061255304431202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -926,19 +926,19 @@
         <v>35584</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25593</v>
+        <v>25510</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47638</v>
+        <v>48994</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1669644681616774</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1200842077482885</v>
+        <v>0.1196944082305335</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.223523302050384</v>
+        <v>0.2298859474094725</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>17747</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11207</v>
+        <v>11040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26669</v>
+        <v>27359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1399156743457479</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08835909157221185</v>
+        <v>0.08703881742766743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2102607323949086</v>
+        <v>0.2156966223705473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -976,19 +976,19 @@
         <v>4346</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10220</v>
+        <v>9916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05036752234233691</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01289932762184953</v>
+        <v>0.01264766136693678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1184514465451888</v>
+        <v>0.1149235582344753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -997,19 +997,19 @@
         <v>22093</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14675</v>
+        <v>15088</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32937</v>
+        <v>32601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1036621434792123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06885908922060409</v>
+        <v>0.07079459054202517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1545465390988441</v>
+        <v>0.1529698949661099</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>73092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61946</v>
+        <v>61620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84707</v>
+        <v>84242</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5762563313954279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4883751826113347</v>
+        <v>0.4858055878335824</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6678294915889539</v>
+        <v>0.664158941827982</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -1047,19 +1047,19 @@
         <v>50652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41229</v>
+        <v>42074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59301</v>
+        <v>60879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5870465285826898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4778389463553781</v>
+        <v>0.487630230781235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6872797909732926</v>
+        <v>0.7055709542351399</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>116</v>
@@ -1068,19 +1068,19 @@
         <v>123744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107177</v>
+        <v>108132</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>138821</v>
+        <v>136901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.580624738090962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5028858973705755</v>
+        <v>0.5073699157852151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6513653748971531</v>
+        <v>0.6423560544137699</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>8747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3905</v>
+        <v>4038</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15849</v>
+        <v>15821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05078512370323556</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02267407892364386</v>
+        <v>0.02344505471254592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09201745977387314</v>
+        <v>0.09185574006708584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1193,19 +1193,19 @@
         <v>10204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4849</v>
+        <v>5111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18094</v>
+        <v>18062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08317005637828159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03952505543599813</v>
+        <v>0.04165619407598822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1474782734047995</v>
+        <v>0.1472176127897757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1214,19 +1214,19 @@
         <v>18951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10834</v>
+        <v>12191</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28909</v>
+        <v>28678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06425706414157711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03673476947883089</v>
+        <v>0.04133708519493084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09802100789549657</v>
+        <v>0.09723744342701615</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>6756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2909</v>
+        <v>2834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13891</v>
+        <v>12587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0392240978895402</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01688794875518086</v>
+        <v>0.01645430059150698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08064683980321595</v>
+        <v>0.07307643578697826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>4107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1006</v>
+        <v>1045</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10345</v>
+        <v>9379</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03347611821768296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008201835124317443</v>
+        <v>0.00851355351359033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08432235774413438</v>
+        <v>0.07644579651325241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1285,19 +1285,19 @@
         <v>10863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5127</v>
+        <v>5790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18396</v>
+        <v>18090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03683297234492152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01738513795817985</v>
+        <v>0.01963350792214565</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06237504304334653</v>
+        <v>0.0613381811060531</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>19520</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11830</v>
+        <v>11764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29554</v>
+        <v>29756</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1133308266804478</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06868247955556624</v>
+        <v>0.06830235756477067</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1715870986525464</v>
+        <v>0.1727603498988035</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1335,19 +1335,19 @@
         <v>8967</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4084</v>
+        <v>4066</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17291</v>
+        <v>16855</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07308489141608679</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03328542144290582</v>
+        <v>0.03314059129468511</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1409362179893851</v>
+        <v>0.1373792802695938</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -1356,19 +1356,19 @@
         <v>28487</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18952</v>
+        <v>19212</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39805</v>
+        <v>41255</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09658875566219915</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06425831258921734</v>
+        <v>0.06514037764402922</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1349635505278858</v>
+        <v>0.1398810897043574</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>23842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15847</v>
+        <v>14803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34873</v>
+        <v>33919</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1384212939662387</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09200661585872244</v>
+        <v>0.08594651651763158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.20246903108004</v>
+        <v>0.1969263329908792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1406,19 +1406,19 @@
         <v>19260</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12186</v>
+        <v>11346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29052</v>
+        <v>29144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1569856678509015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09932171835222851</v>
+        <v>0.09247701946005661</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2367990889261656</v>
+        <v>0.2375434106949946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1427,19 +1427,19 @@
         <v>43102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31311</v>
+        <v>31219</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56984</v>
+        <v>57842</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1461439636953622</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.106165921929711</v>
+        <v>0.1058518348814179</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1932144324132052</v>
+        <v>0.1961220205041375</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>113375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100833</v>
+        <v>100047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125329</v>
+        <v>125946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6582386577605378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5854197307878914</v>
+        <v>0.5808604613867203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.727642378319346</v>
+        <v>0.7312263020100809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -1477,19 +1477,19 @@
         <v>80150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68076</v>
+        <v>68757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90751</v>
+        <v>91402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6532832661370471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5548743984634903</v>
+        <v>0.5604212685889429</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7396924667541788</v>
+        <v>0.7449950740097749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -1498,19 +1498,19 @@
         <v>193525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>175264</v>
+        <v>177227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209879</v>
+        <v>209248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.65617724415594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5942586267222397</v>
+        <v>0.600917582473262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7116265373414434</v>
+        <v>0.7094869717261738</v>
       </c>
     </row>
     <row r="15">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4720</v>
+        <v>4888</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006530326533132571</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03296032487180092</v>
+        <v>0.03413218071881215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>2906</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7971</v>
+        <v>7766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03527772178704339</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01129319877830312</v>
+        <v>0.01130154380445666</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09677022258248867</v>
+        <v>0.09429019719975198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1644,19 +1644,19 @@
         <v>3841</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8783</v>
+        <v>9578</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01702750830498837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004299964983094479</v>
+        <v>0.004294103540863157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03893884113152325</v>
+        <v>0.04246314055143615</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>6585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2773</v>
+        <v>2845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12325</v>
+        <v>13302</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04598306383488234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0193613381698117</v>
+        <v>0.01986793115316255</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08606779135363711</v>
+        <v>0.09289389117745871</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1694,19 +1694,19 @@
         <v>5015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10342</v>
+        <v>10266</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06088334806893402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02366010389290451</v>
+        <v>0.02368481212345059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1255666302865987</v>
+        <v>0.1246424360956034</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1715,19 +1715,19 @@
         <v>11600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6593</v>
+        <v>6236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19725</v>
+        <v>19316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05142393910986501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02922653364821976</v>
+        <v>0.02764438111151007</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08744507716207364</v>
+        <v>0.08563464762411509</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>35569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26735</v>
+        <v>25894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46713</v>
+        <v>46023</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2483831662927382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.186694787567812</v>
+        <v>0.1808209326346948</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3262028819384294</v>
+        <v>0.3213839353533386</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1765,19 +1765,19 @@
         <v>22233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14776</v>
+        <v>14655</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31512</v>
+        <v>30963</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2699348352525776</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1793918541007276</v>
+        <v>0.1779266117963713</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3825900620407132</v>
+        <v>0.3759247916066162</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -1786,19 +1786,19 @@
         <v>57802</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46401</v>
+        <v>45233</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72233</v>
+        <v>71596</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2562528109878526</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2057075938896639</v>
+        <v>0.2005296328585103</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3202279299383975</v>
+        <v>0.3174028282554378</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>35002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25617</v>
+        <v>25514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46552</v>
+        <v>45463</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2444247430747037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1788855609259972</v>
+        <v>0.1781717955479804</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3250811547112348</v>
+        <v>0.3174775572359699</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1836,19 +1836,19 @@
         <v>11908</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6352</v>
+        <v>6792</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19402</v>
+        <v>20469</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1445725392698154</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07712246731010698</v>
+        <v>0.08246701395435407</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2355547422885933</v>
+        <v>0.2485081732339172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1857,19 +1857,19 @@
         <v>46910</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35506</v>
+        <v>34875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59401</v>
+        <v>58737</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2079634663432854</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1574086704647266</v>
+        <v>0.1546085367516107</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2633402695711919</v>
+        <v>0.2603957802180504</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>65110</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53476</v>
+        <v>54176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76128</v>
+        <v>77212</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4546787002645432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3734362356298199</v>
+        <v>0.3783196789206308</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5316138073533816</v>
+        <v>0.5391844703189703</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -1907,19 +1907,19 @@
         <v>40304</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30597</v>
+        <v>31019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48995</v>
+        <v>49476</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4893315556216296</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3714703139740694</v>
+        <v>0.3765981733515179</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5948449465925093</v>
+        <v>0.6006799209840857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -1928,19 +1928,19 @@
         <v>105415</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89267</v>
+        <v>91170</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>119636</v>
+        <v>119924</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4673322752540086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3957459353878515</v>
+        <v>0.4041834912720013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5303772187714513</v>
+        <v>0.5316578156208673</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>7174</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3026</v>
+        <v>2148</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16100</v>
+        <v>15543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05027565766527425</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02120513379050692</v>
+        <v>0.0150521454370206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1128295042614516</v>
+        <v>0.1089324946944953</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2053,19 +2053,19 @@
         <v>6806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2867</v>
+        <v>2965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13845</v>
+        <v>12885</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06643323641670922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02798301603925172</v>
+        <v>0.02894244307162875</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1351391845729231</v>
+        <v>0.1257678601727621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2074,19 +2074,19 @@
         <v>13980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7915</v>
+        <v>7889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23242</v>
+        <v>23945</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05702822913027689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03228875468612152</v>
+        <v>0.03218300682673528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09481333475992637</v>
+        <v>0.09767898780720301</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>9660</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4179</v>
+        <v>4171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19089</v>
+        <v>19723</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06769810383714328</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0292849460744023</v>
+        <v>0.02923048334839245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1337817685801344</v>
+        <v>0.1382202458895001</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2124,19 +2124,19 @@
         <v>8271</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4023</v>
+        <v>3883</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15491</v>
+        <v>15755</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08073429404568126</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03927251592116688</v>
+        <v>0.03789865485471849</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1512078083000097</v>
+        <v>0.1537891293895062</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2145,19 +2145,19 @@
         <v>17931</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10674</v>
+        <v>9451</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29095</v>
+        <v>29709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07314618534543872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04354375261398986</v>
+        <v>0.03855212672184304</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1186881085795573</v>
+        <v>0.1211925158828049</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>20555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13894</v>
+        <v>13615</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31190</v>
+        <v>30941</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1440524252974813</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09737412962419577</v>
+        <v>0.09541559397740508</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2185845590201508</v>
+        <v>0.2168450810335095</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -2195,19 +2195,19 @@
         <v>19368</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12528</v>
+        <v>12436</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28658</v>
+        <v>28835</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1890525132021338</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1222908452092316</v>
+        <v>0.1213864569516199</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2797368049154357</v>
+        <v>0.2814561871635013</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -2216,19 +2216,19 @@
         <v>39923</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28592</v>
+        <v>29450</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51690</v>
+        <v>52217</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1628588513209708</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1166356142061614</v>
+        <v>0.1201362590211435</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2108601294835535</v>
+        <v>0.2130127030104593</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>34708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25006</v>
+        <v>25768</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45881</v>
+        <v>45782</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2432390432616564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1752497898086703</v>
+        <v>0.1805868037858704</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3215436152066031</v>
+        <v>0.3208499571028419</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2266,19 +2266,19 @@
         <v>27497</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18955</v>
+        <v>18407</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38177</v>
+        <v>37148</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2683989336357924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1850190208931765</v>
+        <v>0.1796679356517293</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3726479860460915</v>
+        <v>0.3625986604614326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2287,19 +2287,19 @@
         <v>62204</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49314</v>
+        <v>49187</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77397</v>
+        <v>78848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2537538586567475</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2011685099959229</v>
+        <v>0.2006494808416519</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3157279081097542</v>
+        <v>0.3216478350802167</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>70593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57442</v>
+        <v>58096</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82411</v>
+        <v>83298</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4947347699384448</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.40256663016676</v>
+        <v>0.4071535686749012</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5775591046063713</v>
+        <v>0.583772260496163</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -2337,19 +2337,19 @@
         <v>40506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30552</v>
+        <v>29478</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50087</v>
+        <v>50955</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3953810226996832</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2982187381384962</v>
+        <v>0.2877407659456839</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4889008630098005</v>
+        <v>0.4973744291439846</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -2358,19 +2358,19 @@
         <v>111099</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>95546</v>
+        <v>94351</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129046</v>
+        <v>128160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4532128755465661</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3897675226946236</v>
+        <v>0.3848924400217374</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5264249426833554</v>
+        <v>0.5228084319123874</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>3071</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8295</v>
+        <v>7661</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03778328100335417</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01116404208758557</v>
+        <v>0.01124458584890086</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1020576357189386</v>
+        <v>0.09424809556000648</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2483,19 +2483,19 @@
         <v>3049</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7266</v>
+        <v>8151</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05570057046932978</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01747771329356717</v>
+        <v>0.01776240471134601</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.132728868260491</v>
+        <v>0.1488908626186385</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2504,19 +2504,19 @@
         <v>6120</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2962</v>
+        <v>2085</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12846</v>
+        <v>12366</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0449940541139526</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02177698294359681</v>
+        <v>0.01532894710028087</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09443980318309174</v>
+        <v>0.09090761712800954</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>7595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3234</v>
+        <v>3316</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14097</v>
+        <v>14513</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09343419142520705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03978221883195866</v>
+        <v>0.04079638182521762</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1734328692401924</v>
+        <v>0.1785494815756052</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2554,19 +2554,19 @@
         <v>11872</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6179</v>
+        <v>6140</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19385</v>
+        <v>18654</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2168739503862621</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1128769488575473</v>
+        <v>0.112152138939813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3541180057119068</v>
+        <v>0.3407605461368438</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -2575,19 +2575,19 @@
         <v>19467</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12446</v>
+        <v>12477</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29086</v>
+        <v>28668</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1431122466012086</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09150147336037164</v>
+        <v>0.09172360082246339</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2138317229360926</v>
+        <v>0.2107529376710913</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>14613</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8437</v>
+        <v>8731</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22831</v>
+        <v>22386</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1797784970962065</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1038031931344802</v>
+        <v>0.1074126161785763</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2808833042486182</v>
+        <v>0.2754108659744309</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2625,19 +2625,19 @@
         <v>14341</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8290</v>
+        <v>8320</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22002</v>
+        <v>21738</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2619699721972536</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.151435878878047</v>
+        <v>0.1519847135673213</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4019192982975117</v>
+        <v>0.3970928644212438</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -2646,19 +2646,19 @@
         <v>28954</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20442</v>
+        <v>19285</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>40460</v>
+        <v>39448</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2128562725992758</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1502839504948846</v>
+        <v>0.1417753710050748</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.29744222638745</v>
+        <v>0.2900087425979365</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>14311</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8471</v>
+        <v>8221</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21727</v>
+        <v>21567</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1760712402839276</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1042144593556205</v>
+        <v>0.1011384289471856</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2673051861867685</v>
+        <v>0.2653328081192906</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2696,19 +2696,19 @@
         <v>7824</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3755</v>
+        <v>3856</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13651</v>
+        <v>13864</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1429207167880208</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06859192378099409</v>
+        <v>0.07043283830386851</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2493734190340586</v>
+        <v>0.2532648136360717</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2717,19 +2717,19 @@
         <v>22135</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14270</v>
+        <v>13693</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31676</v>
+        <v>31815</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1627298861756247</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1049043591306211</v>
+        <v>0.1006630994993716</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2328697137966345</v>
+        <v>0.2338944626136011</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>41692</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32037</v>
+        <v>32649</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>51195</v>
+        <v>50699</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5129327901913047</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3941409874305478</v>
+        <v>0.4016800430894482</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6298494732799759</v>
+        <v>0.6237471158113859</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2767,19 +2767,19 @@
         <v>17657</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11299</v>
+        <v>11057</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25400</v>
+        <v>25008</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3225347901591337</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2064097774593974</v>
+        <v>0.2019791526010274</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4639795444600013</v>
+        <v>0.4568230628503215</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2788,19 +2788,19 @@
         <v>59349</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>47272</v>
+        <v>48779</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>72942</v>
+        <v>72671</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4363075405099384</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.347522884901943</v>
+        <v>0.3586002353894733</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5362370025133272</v>
+        <v>0.5342470366683678</v>
       </c>
     </row>
     <row r="33">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4901</v>
+        <v>4793</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008341384100077421</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0426357134903213</v>
+        <v>0.04169986260706872</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5680</v>
+        <v>5520</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01911562707617751</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1027292807350044</v>
+        <v>0.0998292421895518</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6918</v>
+        <v>7050</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01184071497947018</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04063392595148037</v>
+        <v>0.04141355679353225</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>4967</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1944</v>
+        <v>1967</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11127</v>
+        <v>11477</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0432131799134664</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01690833667965332</v>
+        <v>0.01710993374377586</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09679869985998972</v>
+        <v>0.09984067908981974</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6570</v>
+        <v>8259</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04248503673014743</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1188297803613237</v>
+        <v>0.1493729289289442</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -3005,19 +3005,19 @@
         <v>7316</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3013</v>
+        <v>3023</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14651</v>
+        <v>15063</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04297668868789634</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01769846870123912</v>
+        <v>0.01775821582776065</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08606213221825221</v>
+        <v>0.08847912648013556</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>22712</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14906</v>
+        <v>15195</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>33397</v>
+        <v>32702</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1975842011442016</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1296749627587289</v>
+        <v>0.1321900787405992</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2905412173569339</v>
+        <v>0.2844903194763204</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -3055,19 +3055,19 @@
         <v>14855</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8566</v>
+        <v>9267</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>22617</v>
+        <v>22768</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2686640379777007</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1549298413518536</v>
+        <v>0.1675922029429835</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.409048474923038</v>
+        <v>0.4117808432186784</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>36</v>
@@ -3076,19 +3076,19 @@
         <v>37567</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27309</v>
+        <v>27003</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>49967</v>
+        <v>49215</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2206699871697637</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1604128394290233</v>
+        <v>0.1586141699449245</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2935031456008729</v>
+        <v>0.2890910519867085</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>22785</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15246</v>
+        <v>14230</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33839</v>
+        <v>33197</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1982165976903234</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1326312199539142</v>
+        <v>0.1237955974276916</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2943791955303393</v>
+        <v>0.2888002746199105</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -3126,19 +3126,19 @@
         <v>12607</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7426</v>
+        <v>7443</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19474</v>
+        <v>19464</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2280037005716371</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1343005472100377</v>
+        <v>0.1346162336881001</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.352203254007629</v>
+        <v>0.3520269466690364</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -3147,19 +3147,19 @@
         <v>35392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25624</v>
+        <v>24512</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>48138</v>
+        <v>47261</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2078910526985731</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1505152962485439</v>
+        <v>0.1439809627604731</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2827631246962065</v>
+        <v>0.2776084535919608</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>63526</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>51321</v>
+        <v>52064</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>74992</v>
+        <v>74713</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5526446371519312</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4464670314833736</v>
+        <v>0.4529303197583711</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6523928775308933</v>
+        <v>0.6499680559117053</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>22</v>
@@ -3197,19 +3197,19 @@
         <v>24424</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16229</v>
+        <v>17125</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>32430</v>
+        <v>32282</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4417315976443373</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2935213501300244</v>
+        <v>0.3097254370671441</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5865219093583468</v>
+        <v>0.5838518000845729</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>80</v>
@@ -3218,19 +3218,19 @@
         <v>87951</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>72270</v>
+        <v>73649</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>101897</v>
+        <v>101888</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5166215564642966</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4245147029183993</v>
+        <v>0.4326124865874707</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5985428353591421</v>
+        <v>0.5984920192142321</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>10488</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4709</v>
+        <v>5031</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18549</v>
+        <v>20401</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03884254830048441</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01744241060037022</v>
+        <v>0.01863323132853595</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06869898666645452</v>
+        <v>0.0755602385716498</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -3343,19 +3343,19 @@
         <v>11399</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6092</v>
+        <v>6231</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>20495</v>
+        <v>18842</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06291342193407123</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03362311735313134</v>
+        <v>0.03439012398184044</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1131220937735624</v>
+        <v>0.103995956037662</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>21</v>
@@ -3364,19 +3364,19 @@
         <v>21886</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>14212</v>
+        <v>14067</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33055</v>
+        <v>32890</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04850857210295911</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03149913109755315</v>
+        <v>0.03117889137959426</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07326258694918274</v>
+        <v>0.07289842328484047</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>14720</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8204</v>
+        <v>8151</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24114</v>
+        <v>25047</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05451732592907196</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03038558226479554</v>
+        <v>0.03018703355956265</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08930991113261494</v>
+        <v>0.09276703023867057</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>15</v>
@@ -3414,19 +3414,19 @@
         <v>17291</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10464</v>
+        <v>10162</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26941</v>
+        <v>27185</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09543725574482717</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05775417229257312</v>
+        <v>0.05608926778604423</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1486988759136182</v>
+        <v>0.1500434348244486</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>28</v>
@@ -3435,19 +3435,19 @@
         <v>32011</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>21854</v>
+        <v>22395</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>45989</v>
+        <v>46210</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07094934337952231</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.048436912911147</v>
+        <v>0.04963736202604298</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1019314430317314</v>
+        <v>0.1024212246753001</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>72314</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>58565</v>
+        <v>57214</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>86430</v>
+        <v>88215</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2678298055370357</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2169070646480809</v>
+        <v>0.2119034676583912</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3201111358455642</v>
+        <v>0.3267210657667414</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>47</v>
@@ -3485,19 +3485,19 @@
         <v>51979</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>40468</v>
+        <v>40256</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>64704</v>
+        <v>66133</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2868931672479346</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2233601041970097</v>
+        <v>0.2221881008686732</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3571291051002426</v>
+        <v>0.3650182689827235</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>114</v>
@@ -3506,19 +3506,19 @@
         <v>124293</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>104611</v>
+        <v>104617</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>144249</v>
+        <v>142988</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2754849871003513</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2318616395564104</v>
+        <v>0.2318739155062593</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3197145727856809</v>
+        <v>0.3169214966772059</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>49077</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>36113</v>
+        <v>37417</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>62390</v>
+        <v>63290</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1817646612187513</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1337525485665574</v>
+        <v>0.1385818914809402</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2310717630529008</v>
+        <v>0.2344080175081842</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>24</v>
@@ -3556,19 +3556,19 @@
         <v>24374</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16078</v>
+        <v>15371</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>34856</v>
+        <v>34005</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1345302528585479</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08874209713260375</v>
+        <v>0.08483720561766879</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1923848152910977</v>
+        <v>0.1876888087668831</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>72</v>
@@ -3577,19 +3577,19 @@
         <v>73451</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>58527</v>
+        <v>58913</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>89701</v>
+        <v>89899</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1627969692913395</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.129721153961855</v>
+        <v>0.1305746282992187</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1988136477484664</v>
+        <v>0.1992525089574739</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>123403</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>107583</v>
+        <v>106536</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>142740</v>
+        <v>140756</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4570456590146566</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3984536269537618</v>
+        <v>0.394576255396727</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5286661985159179</v>
+        <v>0.5213177353805236</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>73</v>
@@ -3627,19 +3627,19 @@
         <v>76136</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>62915</v>
+        <v>62585</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>89166</v>
+        <v>90103</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.420225902214619</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3472530114640344</v>
+        <v>0.3454362195821655</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4921459535291265</v>
+        <v>0.4973158379351342</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>186</v>
@@ -3648,19 +3648,19 @@
         <v>199538</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>177614</v>
+        <v>176029</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>223013</v>
+        <v>222616</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4422601281258278</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.393667392613851</v>
+        <v>0.3901533268608297</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4942889598974617</v>
+        <v>0.4934094297609965</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>10914</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5219</v>
+        <v>5393</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>19847</v>
+        <v>19584</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03029713940382666</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01448710577950784</v>
+        <v>0.01497105928971268</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05509563543762538</v>
+        <v>0.05436598317273952</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>11</v>
@@ -3773,19 +3773,19 @@
         <v>13056</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6688</v>
+        <v>7145</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>22693</v>
+        <v>22997</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05091149230860161</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02608071713019031</v>
+        <v>0.027861452788348</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08849262467122038</v>
+        <v>0.08967818175940857</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3794,19 +3794,19 @@
         <v>23970</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>14741</v>
+        <v>15593</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>35727</v>
+        <v>37337</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03886943787281425</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02390448376378581</v>
+        <v>0.02528625957777754</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05793542713119821</v>
+        <v>0.06054698700455859</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>22267</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>14273</v>
+        <v>13465</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>35878</v>
+        <v>33821</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06181422403505271</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03962094002005861</v>
+        <v>0.03737910815294821</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09959601437785094</v>
+        <v>0.09388712279372741</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -3844,19 +3844,19 @@
         <v>12702</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>6231</v>
+        <v>6895</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>21805</v>
+        <v>23634</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04953366658205107</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0242981194227082</v>
+        <v>0.02688792003810741</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08502902099659211</v>
+        <v>0.09216503458892934</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>29</v>
@@ -3865,19 +3865,19 @@
         <v>34970</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>23253</v>
+        <v>22847</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>50103</v>
+        <v>48806</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05670746156043263</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03770669874149195</v>
+        <v>0.0370490339143155</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08124818446861472</v>
+        <v>0.07914496629598394</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>84714</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>67555</v>
+        <v>67987</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>100637</v>
+        <v>102005</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2351647783225705</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1875317268631062</v>
+        <v>0.1887321772088728</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2793669225394328</v>
+        <v>0.2831656660689472</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>45</v>
@@ -3915,19 +3915,19 @@
         <v>47705</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>35751</v>
+        <v>36459</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>61608</v>
+        <v>61709</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.186031283081387</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1394139138498275</v>
+        <v>0.1421761212648239</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2402466670918259</v>
+        <v>0.2406426745370609</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>123</v>
@@ -3936,19 +3936,19 @@
         <v>132419</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>112962</v>
+        <v>112242</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>155128</v>
+        <v>156113</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2147330437938361</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1831805006630102</v>
+        <v>0.1820129697527831</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2515587530993784</v>
+        <v>0.2531560643143879</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>127369</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>109884</v>
+        <v>109232</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>146279</v>
+        <v>145845</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3535737667208859</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3050357155867643</v>
+        <v>0.3032264639954664</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4060692610537488</v>
+        <v>0.4048638139765404</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>80</v>
@@ -3986,19 +3986,19 @@
         <v>90904</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>74654</v>
+        <v>75791</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>108035</v>
+        <v>107329</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3544882877114713</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2911203620905541</v>
+        <v>0.2955545082862912</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.421294723892708</v>
+        <v>0.4185419274134214</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>199</v>
@@ -4007,19 +4007,19 @@
         <v>218272</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>193852</v>
+        <v>192275</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>243727</v>
+        <v>240709</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3539540622811524</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3143540353148014</v>
+        <v>0.3117959769094881</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3952306820681612</v>
+        <v>0.3903376215794204</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>114968</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>97561</v>
+        <v>98054</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>133125</v>
+        <v>133086</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3191500915176642</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2708280773267002</v>
+        <v>0.272197859391979</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3695541033318088</v>
+        <v>0.3694449219583521</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>86</v>
@@ -4057,19 +4057,19 @@
         <v>92070</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>77053</v>
+        <v>78172</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>109089</v>
+        <v>107525</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.359035270316489</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3004764355345153</v>
+        <v>0.304841262458369</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4254060252077471</v>
+        <v>0.4193065371036689</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>195</v>
@@ -4078,19 +4078,19 @@
         <v>207038</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>184795</v>
+        <v>181973</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>231737</v>
+        <v>230239</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3357359944917646</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2996663098933481</v>
+        <v>0.2950907611764022</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3757881094653422</v>
+        <v>0.3733591781627651</v>
       </c>
     </row>
     <row r="51">
@@ -4182,19 +4182,19 @@
         <v>57827</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>43441</v>
+        <v>44484</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>74387</v>
+        <v>77246</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.04097020168855608</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.03077783085729212</v>
+        <v>0.03151710401479188</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.05270300978670856</v>
+        <v>0.05472880085389245</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>55</v>
@@ -4203,19 +4203,19 @@
         <v>59350</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>45584</v>
+        <v>46179</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>76566</v>
+        <v>75896</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.06304198816227242</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.04841974113738107</v>
+        <v>0.04905131899830232</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.08132920147748759</v>
+        <v>0.08061756832343743</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>108</v>
@@ -4224,19 +4224,19 @@
         <v>117177</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>95608</v>
+        <v>96381</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>138536</v>
+        <v>140290</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.04980160379330366</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.04063479548176175</v>
+        <v>0.04096329472882724</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.05887978862717598</v>
+        <v>0.05962504798394787</v>
       </c>
     </row>
     <row r="53">
@@ -4253,19 +4253,19 @@
         <v>75679</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>57502</v>
+        <v>59308</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>95781</v>
+        <v>95318</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.05361821888654143</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04074042929490913</v>
+        <v>0.04201997186906358</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.06786086628963134</v>
+        <v>0.06753302966407149</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>57</v>
@@ -4274,19 +4274,19 @@
         <v>63767</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>48947</v>
+        <v>48033</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>81404</v>
+        <v>79553</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.06773412410677462</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.05199165001617936</v>
+        <v>0.05102066710406538</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.08646796701477473</v>
+        <v>0.08450173806203747</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>125</v>
@@ -4295,19 +4295,19 @@
         <v>139446</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>116262</v>
+        <v>116408</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>165863</v>
+        <v>168079</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.05926629976213511</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.04941284960677176</v>
+        <v>0.0494750005720719</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.07049377828188524</v>
+        <v>0.07143565787822687</v>
       </c>
     </row>
     <row r="54">
@@ -4324,19 +4324,19 @@
         <v>287329</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>256709</v>
+        <v>255463</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>319524</v>
+        <v>318011</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2035725429649957</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1818782318342404</v>
+        <v>0.1809956978825017</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2263824928180745</v>
+        <v>0.225310696722705</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>183</v>
@@ -4345,19 +4345,19 @@
         <v>197699</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>172170</v>
+        <v>173820</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>224723</v>
+        <v>224642</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2099980341458622</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1828800955174539</v>
+        <v>0.1846333079030607</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2387027404872804</v>
+        <v>0.2386167916430957</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>455</v>
@@ -4366,19 +4366,19 @@
         <v>485028</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>443651</v>
+        <v>443459</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>524386</v>
+        <v>522894</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2061435218210261</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1885576365252397</v>
+        <v>0.1884757452566495</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2228709145525423</v>
+        <v>0.222236664055712</v>
       </c>
     </row>
     <row r="55">
@@ -4395,19 +4395,19 @@
         <v>324839</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>293464</v>
+        <v>295171</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>358438</v>
+        <v>359976</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2301485546263789</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2079186888727022</v>
+        <v>0.2091287018194831</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2539533399073665</v>
+        <v>0.2550430506011466</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>181</v>
@@ -4416,19 +4416,19 @@
         <v>198719</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>173680</v>
+        <v>173708</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>225632</v>
+        <v>226566</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2110813573353118</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1844844717995069</v>
+        <v>0.1845146598086098</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2396682688594845</v>
+        <v>0.2406604212914588</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>493</v>
@@ -4437,19 +4437,19 @@
         <v>523559</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>484068</v>
+        <v>484589</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>562502</v>
+        <v>569727</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2225193540408943</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2057351844109541</v>
+        <v>0.2059565200232651</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2390708985048234</v>
+        <v>0.2421413133782709</v>
       </c>
     </row>
     <row r="56">
@@ -4466,19 +4466,19 @@
         <v>665760</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>625397</v>
+        <v>625337</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>705310</v>
+        <v>703800</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4716904818335279</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4430936413271135</v>
+        <v>0.4430510079047873</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4997115646508757</v>
+        <v>0.4986416742444228</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>393</v>
@@ -4487,19 +4487,19 @@
         <v>421898</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>393019</v>
+        <v>390834</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>453549</v>
+        <v>452471</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.448144496249779</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4174688453678889</v>
+        <v>0.4151479605997987</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.481763977148427</v>
+        <v>0.4806188465559316</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1014</v>
@@ -4508,19 +4508,19 @@
         <v>1087658</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1040299</v>
+        <v>1035771</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1138577</v>
+        <v>1139382</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4622692205826409</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.442140799828048</v>
+        <v>0.4402165694039177</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4839104035365496</v>
+        <v>0.4842522082312795</v>
       </c>
     </row>
     <row r="57">
@@ -4856,19 +4856,19 @@
         <v>17358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10538</v>
+        <v>10179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28110</v>
+        <v>26989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1304579921543428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07920001742070838</v>
+        <v>0.07650344092650761</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2112703156422092</v>
+        <v>0.2028476135874973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4877,19 +4877,19 @@
         <v>15900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8995</v>
+        <v>9348</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24987</v>
+        <v>25315</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1588848747127893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08988998547097608</v>
+        <v>0.09341370388569724</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2496985523760424</v>
+        <v>0.2529764745305323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -4898,19 +4898,19 @@
         <v>33257</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23281</v>
+        <v>23416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46962</v>
+        <v>46549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1426605645041793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09986907113393133</v>
+        <v>0.1004455260727189</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2014486713900707</v>
+        <v>0.1996772674337978</v>
       </c>
     </row>
     <row r="5">
@@ -4927,19 +4927,19 @@
         <v>22413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13806</v>
+        <v>14546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32737</v>
+        <v>33494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1684504544282532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1037648228082888</v>
+        <v>0.1093301704822456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2460507827145118</v>
+        <v>0.251734395293091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -4948,19 +4948,19 @@
         <v>9762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4592</v>
+        <v>5183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16534</v>
+        <v>16987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09754814731972768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04589217458820715</v>
+        <v>0.05179234688071441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1652199713173866</v>
+        <v>0.1697480126760711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -4969,19 +4969,19 @@
         <v>32174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22767</v>
+        <v>21703</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45076</v>
+        <v>43393</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1380148085046014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09766011529980637</v>
+        <v>0.09309739470471594</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.193360271003999</v>
+        <v>0.1861396230198146</v>
       </c>
     </row>
     <row r="6">
@@ -4998,19 +4998,19 @@
         <v>25747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16858</v>
+        <v>17939</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37444</v>
+        <v>37724</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1935095021964834</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1267037910936176</v>
+        <v>0.1348291737429515</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2814268339493445</v>
+        <v>0.283528142628566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -5019,19 +5019,19 @@
         <v>18114</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11589</v>
+        <v>10969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26577</v>
+        <v>26465</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1810096985726012</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1158098142151953</v>
+        <v>0.10961331563989</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2655880763459966</v>
+        <v>0.2644680014002881</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -5040,19 +5040,19 @@
         <v>43860</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32685</v>
+        <v>32464</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57593</v>
+        <v>56795</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1881438150598245</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1402061401609541</v>
+        <v>0.1392583795677291</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2470542335203746</v>
+        <v>0.2436280359194174</v>
       </c>
     </row>
     <row r="7">
@@ -5069,19 +5069,19 @@
         <v>23406</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14973</v>
+        <v>15805</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34921</v>
+        <v>34824</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1759156139963884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.112537826207975</v>
+        <v>0.1187884048453152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2624610770326785</v>
+        <v>0.2617370985749894</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5090,19 +5090,19 @@
         <v>21428</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14140</v>
+        <v>14527</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31173</v>
+        <v>31440</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.214134802352767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1413003922172329</v>
+        <v>0.1451711200655722</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3115156784888375</v>
+        <v>0.3141784835428102</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -5111,19 +5111,19 @@
         <v>44834</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33380</v>
+        <v>33394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58409</v>
+        <v>58137</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.192321648323644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1431869418258302</v>
+        <v>0.1432491138612408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.250553593025523</v>
+        <v>0.249388209766435</v>
       </c>
     </row>
     <row r="8">
@@ -5140,19 +5140,19 @@
         <v>44129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33517</v>
+        <v>32481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56489</v>
+        <v>54947</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3316664372245323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2519133531592365</v>
+        <v>0.2441252659091205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4245675651165647</v>
+        <v>0.4129800682062116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -5161,19 +5161,19 @@
         <v>34867</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26015</v>
+        <v>25835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45157</v>
+        <v>45192</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3484224770421148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2599704779739535</v>
+        <v>0.2581660460986507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4512557719770115</v>
+        <v>0.4516052251632783</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -5182,19 +5182,19 @@
         <v>78995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>64206</v>
+        <v>63098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>94988</v>
+        <v>93803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3388591636077508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2754200528440306</v>
+        <v>0.2706660991983809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4074618753842185</v>
+        <v>0.4023812996746535</v>
       </c>
     </row>
     <row r="9">
@@ -5286,19 +5286,19 @@
         <v>9848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4576</v>
+        <v>4505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17835</v>
+        <v>17423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05782961104876023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02687313194759637</v>
+        <v>0.02645647990502085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1047271494253053</v>
+        <v>0.1023083238631985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5307,19 +5307,19 @@
         <v>14454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8472</v>
+        <v>8119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22712</v>
+        <v>22442</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1271487331992832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07452524341328691</v>
+        <v>0.0714189113305034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1997870500212183</v>
+        <v>0.1974130294595796</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -5328,19 +5328,19 @@
         <v>24302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15487</v>
+        <v>16384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36290</v>
+        <v>34894</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08557908290459615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05453582717267132</v>
+        <v>0.05769401713667215</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1277922150164525</v>
+        <v>0.1228754908733808</v>
       </c>
     </row>
     <row r="11">
@@ -5357,19 +5357,19 @@
         <v>11743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6415</v>
+        <v>6340</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20255</v>
+        <v>20093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06895322400848558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03767068960458742</v>
+        <v>0.03723119112152472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1189410965915799</v>
+        <v>0.1179884162395748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5378,19 +5378,19 @@
         <v>14164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8115</v>
+        <v>8048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21938</v>
+        <v>22487</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1245941389376151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07138491710525409</v>
+        <v>0.0707979983951543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1929780773024849</v>
+        <v>0.1978065642611958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -5399,19 +5399,19 @@
         <v>25906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17245</v>
+        <v>17161</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36794</v>
+        <v>36751</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09122710681251343</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06072583461788755</v>
+        <v>0.0604314197876334</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1295661906789393</v>
+        <v>0.129413967395289</v>
       </c>
     </row>
     <row r="12">
@@ -5428,19 +5428,19 @@
         <v>39605</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28975</v>
+        <v>29049</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54045</v>
+        <v>50674</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2325650598476664</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1701431329067747</v>
+        <v>0.1705767556546126</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3173574249298375</v>
+        <v>0.2975643616003698</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -5449,19 +5449,19 @@
         <v>23524</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15872</v>
+        <v>15554</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33018</v>
+        <v>33782</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.206933732285854</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1396226329272899</v>
+        <v>0.1368184192040325</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2904432562948667</v>
+        <v>0.2971641329766607</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -5470,19 +5470,19 @@
         <v>63129</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49278</v>
+        <v>49375</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>78845</v>
+        <v>79683</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2223044595870375</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.173526644720933</v>
+        <v>0.1738696640695954</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2776441974193802</v>
+        <v>0.2805966442931892</v>
       </c>
     </row>
     <row r="13">
@@ -5499,19 +5499,19 @@
         <v>41888</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29846</v>
+        <v>31734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53371</v>
+        <v>54653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2459706910553401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1752593325534916</v>
+        <v>0.1863455492973841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3134018936469018</v>
+        <v>0.3209282121923429</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5520,19 +5520,19 @@
         <v>15710</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9640</v>
+        <v>9534</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24732</v>
+        <v>24413</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1381978066339608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08480216846176834</v>
+        <v>0.08386521938092095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2175582168479528</v>
+        <v>0.2147529327564912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -5541,19 +5541,19 @@
         <v>57598</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44138</v>
+        <v>43643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73529</v>
+        <v>71795</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.202827608305687</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1554267466354436</v>
+        <v>0.153686626659824</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2589265787809121</v>
+        <v>0.2528199847018334</v>
       </c>
     </row>
     <row r="14">
@@ -5570,19 +5570,19 @@
         <v>67213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54259</v>
+        <v>55008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81891</v>
+        <v>82323</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3946814140397477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3186149451805727</v>
+        <v>0.3230125344681184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4808702200199127</v>
+        <v>0.4834066830080435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -5591,19 +5591,19 @@
         <v>45827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35649</v>
+        <v>35803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56316</v>
+        <v>55977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4031255889432869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3135887469336858</v>
+        <v>0.3149485601268026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.495394570085852</v>
+        <v>0.4924096520050181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -5612,19 +5612,19 @@
         <v>113040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95744</v>
+        <v>96225</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130412</v>
+        <v>130147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.398061742390166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.337154643817464</v>
+        <v>0.3388493118062889</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4592358022811661</v>
+        <v>0.4583005181687156</v>
       </c>
     </row>
     <row r="15">
@@ -5716,19 +5716,19 @@
         <v>6042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2599</v>
+        <v>1872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12206</v>
+        <v>11957</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04810809726971386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02069236082516244</v>
+        <v>0.01490667185162262</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09719249063924548</v>
+        <v>0.09520577179600372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5737,19 +5737,19 @@
         <v>6678</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2906</v>
+        <v>2862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12858</v>
+        <v>12374</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07918252223074022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03445367723031237</v>
+        <v>0.03393612931770319</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1524610803442612</v>
+        <v>0.1467333101421006</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -5758,19 +5758,19 @@
         <v>12720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7264</v>
+        <v>6778</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20884</v>
+        <v>20369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06059181394409925</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03460457223857839</v>
+        <v>0.03228751123960023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09948356165475926</v>
+        <v>0.09702907892297505</v>
       </c>
     </row>
     <row r="17">
@@ -5787,19 +5787,19 @@
         <v>13157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7605</v>
+        <v>7344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21322</v>
+        <v>20860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1047660695130124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06055506804423227</v>
+        <v>0.05847817248644032</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1697733492044304</v>
+        <v>0.1660963875659142</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -5808,19 +5808,19 @@
         <v>12273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6609</v>
+        <v>7297</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19363</v>
+        <v>19476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1455266549109215</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0783674419056973</v>
+        <v>0.08652710328872015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2295989862640394</v>
+        <v>0.2309396746861561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -5829,19 +5829,19 @@
         <v>25430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16898</v>
+        <v>17618</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36731</v>
+        <v>35303</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.121141066000567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08049420769354891</v>
+        <v>0.08392715171410264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1749723920658406</v>
+        <v>0.1681712465349889</v>
       </c>
     </row>
     <row r="18">
@@ -5858,19 +5858,19 @@
         <v>40240</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30287</v>
+        <v>31026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50178</v>
+        <v>49793</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3204116637773803</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2411582847033145</v>
+        <v>0.2470434856366491</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3995407768768043</v>
+        <v>0.3964731508912619</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -5879,19 +5879,19 @@
         <v>18742</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12244</v>
+        <v>11936</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27403</v>
+        <v>27371</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2222321965991732</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1451870255212261</v>
+        <v>0.1415391555934237</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3249322301531929</v>
+        <v>0.3245626975101817</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -5900,19 +5900,19 @@
         <v>58982</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46179</v>
+        <v>46207</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72022</v>
+        <v>71082</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2809694326489824</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2199838387977712</v>
+        <v>0.2201161536063186</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3430898348193237</v>
+        <v>0.3386134862808511</v>
       </c>
     </row>
     <row r="19">
@@ -5929,19 +5929,19 @@
         <v>34869</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25490</v>
+        <v>26711</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45175</v>
+        <v>46534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2776416653823374</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.202963076538863</v>
+        <v>0.2126818642068021</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3597061087430133</v>
+        <v>0.3705231954818505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -5950,19 +5950,19 @@
         <v>32212</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23622</v>
+        <v>23239</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41222</v>
+        <v>41271</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3819637578028476</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2801002033043657</v>
+        <v>0.2755624834665562</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4888028220367157</v>
+        <v>0.4893781974929808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>68</v>
@@ -5971,19 +5971,19 @@
         <v>67081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53930</v>
+        <v>55146</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80656</v>
+        <v>81472</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3195516104992649</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2569056038654737</v>
+        <v>0.2626989519217648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.384220543181725</v>
+        <v>0.3881038742309363</v>
       </c>
     </row>
     <row r="20">
@@ -6000,19 +6000,19 @@
         <v>31281</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22346</v>
+        <v>23243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41392</v>
+        <v>41863</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.249072504057556</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.177932429938573</v>
+        <v>0.185068021905405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.329585168828721</v>
+        <v>0.3333325037651351</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -6021,19 +6021,19 @@
         <v>14429</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8775</v>
+        <v>9087</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22917</v>
+        <v>22957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1710948684563176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1040571458781551</v>
+        <v>0.1077559190178223</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2717469753566097</v>
+        <v>0.2722134668875964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -6042,19 +6042,19 @@
         <v>45710</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34924</v>
+        <v>34945</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59012</v>
+        <v>57597</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2177460769070864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1663672821468073</v>
+        <v>0.1664676265984568</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2811150591352265</v>
+        <v>0.2743752463688341</v>
       </c>
     </row>
     <row r="21">
@@ -6146,19 +6146,19 @@
         <v>5518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1897</v>
+        <v>1912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12225</v>
+        <v>12035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04918631546372553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01691300027815122</v>
+        <v>0.01704665566770209</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.10897371801206</v>
+        <v>0.1072810949636514</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6167,19 +6167,19 @@
         <v>11767</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6109</v>
+        <v>5630</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19398</v>
+        <v>19003</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.143750523850841</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0746233472017435</v>
+        <v>0.06877473557401459</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2369661147303622</v>
+        <v>0.2321416472483681</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6188,19 +6188,19 @@
         <v>17285</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10211</v>
+        <v>9597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26533</v>
+        <v>26132</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08907991686551558</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05262153900965641</v>
+        <v>0.0494599491647956</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1367403541508627</v>
+        <v>0.1346739874696564</v>
       </c>
     </row>
     <row r="23">
@@ -6217,19 +6217,19 @@
         <v>9259</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4280</v>
+        <v>4916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16415</v>
+        <v>16388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0825356127412166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03815577070253165</v>
+        <v>0.04382605260116668</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1463307294530676</v>
+        <v>0.1460893744994422</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -6238,19 +6238,19 @@
         <v>7084</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2982</v>
+        <v>3063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13019</v>
+        <v>14421</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08654468034490827</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03643307847309148</v>
+        <v>0.03742361674666545</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1590370628088118</v>
+        <v>0.1761741877066481</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -6259,19 +6259,19 @@
         <v>16343</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9989</v>
+        <v>9970</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24836</v>
+        <v>25612</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08422690956167724</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05147831682660754</v>
+        <v>0.05137922320999581</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1279960352270476</v>
+        <v>0.1319918544490822</v>
       </c>
     </row>
     <row r="24">
@@ -6288,19 +6288,19 @@
         <v>15226</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8752</v>
+        <v>8772</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24313</v>
+        <v>24431</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.135728901729145</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07801475516708066</v>
+        <v>0.07819298651836676</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2167332056933823</v>
+        <v>0.2177803156816265</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -6309,19 +6309,19 @@
         <v>7908</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3840</v>
+        <v>3826</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14799</v>
+        <v>14284</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09660609777097368</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04690854785419229</v>
+        <v>0.04674490658954711</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1807905974660119</v>
+        <v>0.1744963378103067</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -6330,19 +6330,19 @@
         <v>23134</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14907</v>
+        <v>14928</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35502</v>
+        <v>35464</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1192242476591987</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07682659691756584</v>
+        <v>0.07693397478784296</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1829650194675068</v>
+        <v>0.1827667008106554</v>
       </c>
     </row>
     <row r="25">
@@ -6359,19 +6359,19 @@
         <v>8909</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4729</v>
+        <v>4011</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16814</v>
+        <v>15640</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07942116318352888</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04215833514688579</v>
+        <v>0.03575225377789415</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1498838431087146</v>
+        <v>0.1394201613614063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6380,19 +6380,19 @@
         <v>13094</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7351</v>
+        <v>7146</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20795</v>
+        <v>20636</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1599592461754076</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08980676312219002</v>
+        <v>0.08729453537138956</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2540361982770158</v>
+        <v>0.2520901858885612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -6401,19 +6401,19 @@
         <v>22004</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13670</v>
+        <v>14279</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32856</v>
+        <v>31811</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1133975929061729</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07044862351576152</v>
+        <v>0.0735903985549663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1693254101502567</v>
+        <v>0.1639438147772254</v>
       </c>
     </row>
     <row r="26">
@@ -6430,19 +6430,19 @@
         <v>73268</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62184</v>
+        <v>62433</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>83683</v>
+        <v>83100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6531280068823839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5543202067768124</v>
+        <v>0.5565410653127663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.745967897448868</v>
+        <v>0.740773411718177</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -6451,19 +6451,19 @@
         <v>42005</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32997</v>
+        <v>33725</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50021</v>
+        <v>52122</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5131394518578695</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4030936747395166</v>
+        <v>0.411986695400635</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6110641477041024</v>
+        <v>0.6367331842045532</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -6472,19 +6472,19 @@
         <v>115273</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100003</v>
+        <v>100670</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>128483</v>
+        <v>128434</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5940713330074356</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5153751290415507</v>
+        <v>0.5188135195974726</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6621486137090041</v>
+        <v>0.6619002534528703</v>
       </c>
     </row>
     <row r="27">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7455</v>
+        <v>6642</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0236486462434509</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09212142829202491</v>
+        <v>0.08206830630812538</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5006</v>
+        <v>4110</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01491837888396856</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09032673547353505</v>
+        <v>0.07416014461947595</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -6618,19 +6618,19 @@
         <v>2741</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7781</v>
+        <v>7502</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02010025289762062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006026238359203189</v>
+        <v>0.006037667980797252</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0570643654560799</v>
+        <v>0.05502247462394266</v>
       </c>
     </row>
     <row r="29">
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5139</v>
+        <v>4783</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01097230917492201</v>
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06350003705109733</v>
+        <v>0.05910008759412563</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -6668,19 +6668,19 @@
         <v>6455</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2777</v>
+        <v>2743</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12182</v>
+        <v>11870</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1164756150819605</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05010752046797341</v>
+        <v>0.04949023162083922</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2198173727898436</v>
+        <v>0.2141900108054304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -6689,19 +6689,19 @@
         <v>7343</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3550</v>
+        <v>3533</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12885</v>
+        <v>13329</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05385383997214499</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02603920660047655</v>
+        <v>0.02591375109269492</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09450104331049677</v>
+        <v>0.09775499886733433</v>
       </c>
     </row>
     <row r="30">
@@ -6718,19 +6718,19 @@
         <v>24812</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17310</v>
+        <v>16629</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34280</v>
+        <v>33783</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3065831972635786</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2138876799602897</v>
+        <v>0.2054771289688318</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4235702584322764</v>
+        <v>0.4174297507383365</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -6739,19 +6739,19 @@
         <v>14243</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8798</v>
+        <v>8887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21340</v>
+        <v>21488</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2570140350879821</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1587601006135249</v>
+        <v>0.1603663961708578</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3850659725151051</v>
+        <v>0.3877404541404416</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -6760,19 +6760,19 @@
         <v>39055</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29005</v>
+        <v>29006</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50215</v>
+        <v>49950</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2864359465575362</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2127280155541421</v>
+        <v>0.2127328660674131</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3682883336107099</v>
+        <v>0.3663406280316999</v>
       </c>
     </row>
     <row r="31">
@@ -6789,19 +6789,19 @@
         <v>38671</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30010</v>
+        <v>29661</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>47657</v>
+        <v>47957</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4778359793896449</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3708090297559416</v>
+        <v>0.3665078261386542</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5888631844488283</v>
+        <v>0.5925789284756433</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -6810,19 +6810,19 @@
         <v>24162</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17397</v>
+        <v>17535</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31553</v>
+        <v>30980</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4359998351850833</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3139303510186468</v>
+        <v>0.3164110001589466</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5693619668031951</v>
+        <v>0.5590245075736175</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -6831,19 +6831,19 @@
         <v>62833</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>52539</v>
+        <v>51582</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>74308</v>
+        <v>74257</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.46083179273671</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3853316928094724</v>
+        <v>0.3783101800940314</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5449904535321325</v>
+        <v>0.5446144829350295</v>
       </c>
     </row>
     <row r="32">
@@ -6860,19 +6860,19 @@
         <v>14645</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8639</v>
+        <v>8173</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23084</v>
+        <v>22573</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1809598679284035</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1067424589462424</v>
+        <v>0.100988701938142</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2852370339600698</v>
+        <v>0.278922175999965</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -6881,19 +6881,19 @@
         <v>9731</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5309</v>
+        <v>5342</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15453</v>
+        <v>16209</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1755921357610055</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09580321763843927</v>
+        <v>0.09639146194054632</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2788434967776771</v>
+        <v>0.2924834206274081</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -6902,19 +6902,19 @@
         <v>24376</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>16419</v>
+        <v>16247</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33741</v>
+        <v>34283</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1787781678359881</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1204203837166292</v>
+        <v>0.119154905441642</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2474645992708947</v>
+        <v>0.2514347208655726</v>
       </c>
     </row>
     <row r="33">
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6268</v>
+        <v>5450</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02354634326875813</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08294466184038927</v>
+        <v>0.07212155901588355</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6237</v>
+        <v>5804</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009719518823917377</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03406838958494244</v>
+        <v>0.03170174312248129</v>
       </c>
     </row>
     <row r="35">
@@ -7069,19 +7069,19 @@
         <v>21718</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13711</v>
+        <v>14230</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29965</v>
+        <v>30994</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2020269343772503</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1275460715274628</v>
+        <v>0.1323737078352024</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2787406191667009</v>
+        <v>0.288312082597823</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>16</v>
@@ -7090,19 +7090,19 @@
         <v>15440</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9723</v>
+        <v>9774</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23849</v>
+        <v>24383</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.204320462990967</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.128665592981636</v>
+        <v>0.1293457689529433</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.315590263311339</v>
+        <v>0.3226689248793485</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>37</v>
@@ -7111,19 +7111,19 @@
         <v>37159</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>27199</v>
+        <v>27197</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>50120</v>
+        <v>49681</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2029736628896045</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1485684985975227</v>
+        <v>0.1485614172944283</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2737741800565812</v>
+        <v>0.2713762014435135</v>
       </c>
     </row>
     <row r="36">
@@ -7140,19 +7140,19 @@
         <v>35336</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26501</v>
+        <v>25597</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>45564</v>
+        <v>44234</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3287008769737413</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2465137405062541</v>
+        <v>0.2381076280989975</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4238390782140666</v>
+        <v>0.4114708890439315</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>29</v>
@@ -7161,19 +7161,19 @@
         <v>28289</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20236</v>
+        <v>21069</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36199</v>
+        <v>36986</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3743528204538722</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2677874631715607</v>
+        <v>0.2788081807482656</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4790314722221974</v>
+        <v>0.4894364092804407</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>63</v>
@@ -7182,19 +7182,19 @@
         <v>63625</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>50681</v>
+        <v>51501</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>76775</v>
+        <v>77989</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3475452010770205</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2768366582880457</v>
+        <v>0.2813173966475545</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4193734782593965</v>
+        <v>0.4260038654477038</v>
       </c>
     </row>
     <row r="37">
@@ -7211,19 +7211,19 @@
         <v>28277</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19736</v>
+        <v>20281</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38549</v>
+        <v>37582</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.263039267699712</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1835847056101645</v>
+        <v>0.1886612107443306</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3585928589164489</v>
+        <v>0.3495909724772026</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -7232,19 +7232,19 @@
         <v>18453</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12128</v>
+        <v>11517</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27245</v>
+        <v>25952</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2441924233192453</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.160490443570528</v>
+        <v>0.1524096697854244</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3605330656253543</v>
+        <v>0.3434312851599776</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>46</v>
@@ -7253,19 +7253,19 @@
         <v>46731</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>34818</v>
+        <v>36208</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>58172</v>
+        <v>58711</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2552596198522079</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1901905663982009</v>
+        <v>0.1977798056334923</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3177545579655039</v>
+        <v>0.3206988403930721</v>
       </c>
     </row>
     <row r="38">
@@ -7282,19 +7282,19 @@
         <v>22170</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14737</v>
+        <v>14440</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>32085</v>
+        <v>31084</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2062329209492964</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1370903451479613</v>
+        <v>0.1343233905354662</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.298461236122698</v>
+        <v>0.2891479628071953</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -7303,19 +7303,19 @@
         <v>11606</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6055</v>
+        <v>6143</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18619</v>
+        <v>18795</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1535879499671573</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08013006856937013</v>
+        <v>0.08128674666662225</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2463809025976954</v>
+        <v>0.2487164630825469</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>32</v>
@@ -7324,19 +7324,19 @@
         <v>33777</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>24019</v>
+        <v>23967</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>45107</v>
+        <v>45453</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1845019973572498</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1312022928134599</v>
+        <v>0.1309151275616286</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2463917577234526</v>
+        <v>0.248281912720416</v>
       </c>
     </row>
     <row r="39">
@@ -7428,19 +7428,19 @@
         <v>28551</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>18524</v>
+        <v>19950</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>40628</v>
+        <v>41110</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07955673706419901</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05161770236198538</v>
+        <v>0.05559062998957541</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1132102564718555</v>
+        <v>0.1145522077512125</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>27</v>
@@ -7449,19 +7449,19 @@
         <v>28957</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>20211</v>
+        <v>19574</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>41308</v>
+        <v>40838</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1020151853106189</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07120282703191119</v>
+        <v>0.06895862889861898</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1455289546132813</v>
+        <v>0.1438737875989119</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>53</v>
@@ -7470,19 +7470,19 @@
         <v>57508</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>43240</v>
+        <v>43389</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>72967</v>
+        <v>73994</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0894751014895106</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06727569837856387</v>
+        <v>0.06750866683658106</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1135276154987539</v>
+        <v>0.1151265669017716</v>
       </c>
     </row>
     <row r="41">
@@ -7499,19 +7499,19 @@
         <v>40380</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29534</v>
+        <v>28419</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>53615</v>
+        <v>53158</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1125190842831278</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08229673755239694</v>
+        <v>0.07918846016650664</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1493980250738354</v>
+        <v>0.1481240202983571</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>40</v>
@@ -7520,19 +7520,19 @@
         <v>40342</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>30142</v>
+        <v>30337</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>52942</v>
+        <v>53195</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1421268962627027</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1061930958415793</v>
+        <v>0.1068797179729688</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1865175382014381</v>
+        <v>0.1874070283061901</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>76</v>
@@ -7541,19 +7541,19 @@
         <v>80722</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>64721</v>
+        <v>65707</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>100574</v>
+        <v>99161</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1255948349239292</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1006981577622229</v>
+        <v>0.1022325934983244</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1564822378055114</v>
+        <v>0.1542838942200639</v>
       </c>
     </row>
     <row r="42">
@@ -7570,19 +7570,19 @@
         <v>114727</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>98733</v>
+        <v>95545</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>133273</v>
+        <v>134376</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3196860094932013</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2751188502018133</v>
+        <v>0.2662339622055503</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.371362277953692</v>
+        <v>0.3744380949579867</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>84</v>
@@ -7591,19 +7591,19 @@
         <v>86016</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>71563</v>
+        <v>70875</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>103410</v>
+        <v>101697</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3030363075442021</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2521190008804926</v>
+        <v>0.249695155004031</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3643162597443486</v>
+        <v>0.3582810794780482</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>183</v>
@@ -7612,19 +7612,19 @@
         <v>200743</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>175700</v>
+        <v>177274</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>224692</v>
+        <v>226880</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3123329720219094</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2733685690978179</v>
+        <v>0.2758180446037977</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3495949842038089</v>
+        <v>0.3529998514366794</v>
       </c>
     </row>
     <row r="43">
@@ -7641,19 +7641,19 @@
         <v>72566</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>55342</v>
+        <v>58007</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>88270</v>
+        <v>90761</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2022029778583947</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1542107644133838</v>
+        <v>0.1616365850221878</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2459635646942715</v>
+        <v>0.2529030941563121</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>49</v>
@@ -7662,19 +7662,19 @@
         <v>51549</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>40582</v>
+        <v>39883</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>64510</v>
+        <v>65668</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1816097698993355</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1429717426951243</v>
+        <v>0.1405106712673551</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2272723806684592</v>
+        <v>0.231350535804229</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>111</v>
@@ -7683,19 +7683,19 @@
         <v>124115</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>103120</v>
+        <v>106536</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>146224</v>
+        <v>147989</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1931083628171825</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1604421358947021</v>
+        <v>0.165757102653886</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2275082176051203</v>
+        <v>0.2302533241517932</v>
       </c>
     </row>
     <row r="44">
@@ -7712,19 +7712,19 @@
         <v>102651</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>84568</v>
+        <v>86189</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>119769</v>
+        <v>123425</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2860351913010772</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2356475385006893</v>
+        <v>0.2401640636341139</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3337342763340166</v>
+        <v>0.3439224482778954</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>73</v>
@@ -7733,19 +7733,19 @@
         <v>76982</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>63516</v>
+        <v>62377</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>92977</v>
+        <v>94538</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2712118409831408</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2237698640123342</v>
+        <v>0.2197572158818705</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3275608588777987</v>
+        <v>0.3330611014600937</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>162</v>
@@ -7754,19 +7754,19 @@
         <v>179633</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>156176</v>
+        <v>156819</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>204860</v>
+        <v>204194</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2794887287474683</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2429911386014748</v>
+        <v>0.2439925800327308</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3187389629001289</v>
+        <v>0.3177023459323826</v>
       </c>
     </row>
     <row r="45">
@@ -7858,19 +7858,19 @@
         <v>12292</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6208</v>
+        <v>6883</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>20446</v>
+        <v>20434</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0374870023530878</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01893144109718885</v>
+        <v>0.02099116006552631</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06235184544524974</v>
+        <v>0.06231618346144753</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -7879,19 +7879,19 @@
         <v>9296</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4180</v>
+        <v>4283</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16127</v>
+        <v>16601</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03918795925821116</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01762306702036735</v>
+        <v>0.01805694624823589</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06798556947785435</v>
+        <v>0.06998624852780985</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -7900,19 +7900,19 @@
         <v>21588</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13052</v>
+        <v>13311</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>30842</v>
+        <v>31206</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03820097239175356</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02309581559090651</v>
+        <v>0.02355444347577388</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05457680905177613</v>
+        <v>0.05522047754475123</v>
       </c>
     </row>
     <row r="47">
@@ -7929,19 +7929,19 @@
         <v>16033</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9741</v>
+        <v>9617</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25926</v>
+        <v>25882</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04889343821307664</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02970713712948811</v>
+        <v>0.02932925434862707</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07906294584561749</v>
+        <v>0.07892873105470868</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>22</v>
@@ -7950,19 +7950,19 @@
         <v>22105</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>14219</v>
+        <v>14362</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>31724</v>
+        <v>32286</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.09318867288421413</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05994444548631814</v>
+        <v>0.06054802262672271</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1337408846924515</v>
+        <v>0.136107245217906</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>38</v>
@@ -7971,19 +7971,19 @@
         <v>38138</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>27283</v>
+        <v>27406</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>51753</v>
+        <v>50700</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06748619051362206</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04827813457894913</v>
+        <v>0.04849592450501842</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09157862182974248</v>
+        <v>0.08971570436492293</v>
       </c>
     </row>
     <row r="48">
@@ -8000,19 +8000,19 @@
         <v>62222</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>48321</v>
+        <v>47614</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>77137</v>
+        <v>77596</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1897524726976209</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1473602934911091</v>
+        <v>0.1452020586965194</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2352352974597223</v>
+        <v>0.2366372034265425</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>31</v>
@@ -8021,19 +8021,19 @@
         <v>32633</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>23703</v>
+        <v>23028</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>45174</v>
+        <v>45516</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1375729854263999</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09992693194790313</v>
+        <v>0.09707956988745074</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1904392391341868</v>
+        <v>0.1918819389105249</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>89</v>
@@ -8042,19 +8042,19 @@
         <v>94855</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>78755</v>
+        <v>76582</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>114926</v>
+        <v>114766</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1678503360635999</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1393597214325435</v>
+        <v>0.1355139417133297</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2033656640528139</v>
+        <v>0.2030827888169362</v>
       </c>
     </row>
     <row r="49">
@@ -8071,19 +8071,19 @@
         <v>112861</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>96032</v>
+        <v>95340</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>129239</v>
+        <v>130295</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3441806780330382</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.292857579363935</v>
+        <v>0.2907493097881579</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3941252344037215</v>
+        <v>0.397344723505698</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>94</v>
@@ -8092,19 +8092,19 @@
         <v>96751</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>81570</v>
+        <v>81507</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>112038</v>
+        <v>111807</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4078746372706812</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3438755507000849</v>
+        <v>0.3436103102231879</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4723217392919567</v>
+        <v>0.471347527412071</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>204</v>
@@ -8113,19 +8113,19 @@
         <v>209612</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>188227</v>
+        <v>186147</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>233443</v>
+        <v>232596</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3709159694461839</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3330744814925728</v>
+        <v>0.3293935615165734</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4130866441744221</v>
+        <v>0.4115883881820138</v>
       </c>
     </row>
     <row r="50">
@@ -8142,19 +8142,19 @@
         <v>124504</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>107173</v>
+        <v>107692</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>142235</v>
+        <v>142025</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3796864087031765</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3268345570820678</v>
+        <v>0.3284175276716549</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4337597333384395</v>
+        <v>0.4331173690863695</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>72</v>
@@ -8163,19 +8163,19 @@
         <v>76422</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>63011</v>
+        <v>61698</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>93417</v>
+        <v>90057</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3221757451604936</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2656379706633654</v>
+        <v>0.2601003028079257</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3938213073610127</v>
+        <v>0.3796550967899905</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>190</v>
@@ -8184,19 +8184,19 @@
         <v>200926</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>177351</v>
+        <v>179029</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>224867</v>
+        <v>225940</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3555465315848406</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3138302986706361</v>
+        <v>0.3167988335775205</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3979115899069495</v>
+        <v>0.39981016051909</v>
       </c>
     </row>
     <row r="51">
@@ -8288,19 +8288,19 @@
         <v>81523</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>64738</v>
+        <v>64557</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>102744</v>
+        <v>100800</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.0575587606373489</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04570797170722726</v>
+        <v>0.0455800028878209</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.07254173603670502</v>
+        <v>0.07116980090624336</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>85</v>
@@ -8309,19 +8309,19 @@
         <v>89657</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>72397</v>
+        <v>71601</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>109258</v>
+        <v>108630</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.08687867407558929</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.07015353770408872</v>
+        <v>0.06938225289666398</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1058715822385039</v>
+        <v>0.1052631852980634</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>160</v>
@@ -8330,19 +8330,19 @@
         <v>171180</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>147121</v>
+        <v>146042</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>198166</v>
+        <v>197914</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.06991728895047837</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.06009054075300843</v>
+        <v>0.05964995120565109</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08093959711478881</v>
+        <v>0.08083679113936243</v>
       </c>
     </row>
     <row r="53">
@@ -8359,19 +8359,19 @@
         <v>135591</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>113480</v>
+        <v>115751</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>159293</v>
+        <v>161058</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.095733403523157</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.08012192611337542</v>
+        <v>0.08172544256211339</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1124680129698759</v>
+        <v>0.1137143267316382</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>129</v>
@@ -8380,19 +8380,19 @@
         <v>127625</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>107930</v>
+        <v>108172</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>149681</v>
+        <v>149340</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1236697509508109</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1045848823339014</v>
+        <v>0.1048200440786965</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1450426323500126</v>
+        <v>0.1447119396186168</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>257</v>
@@ -8401,19 +8401,19 @@
         <v>263216</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>233184</v>
+        <v>233149</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>294934</v>
+        <v>292667</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1075087500424202</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.09524245796805071</v>
+        <v>0.09522829907096718</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1204639233633707</v>
+        <v>0.1195381803637954</v>
       </c>
     </row>
     <row r="54">
@@ -8430,19 +8430,19 @@
         <v>357915</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>323256</v>
+        <v>322970</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>391257</v>
+        <v>391622</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2527050402941973</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.228233768240073</v>
+        <v>0.2280320215842515</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.276245721110308</v>
+        <v>0.2765032171552299</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>226</v>
@@ -8451,19 +8451,19 @@
         <v>229469</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>202957</v>
+        <v>203186</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>257399</v>
+        <v>256040</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2223576348026695</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1966676050309536</v>
+        <v>0.1968887130873595</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2494219340512678</v>
+        <v>0.2481049892559543</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>554</v>
@@ -8472,19 +8472,19 @@
         <v>587384</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>542348</v>
+        <v>543975</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>630525</v>
+        <v>632416</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2399134176044826</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2215185247087846</v>
+        <v>0.2221833466159541</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.257533917103024</v>
+        <v>0.2583062509257925</v>
       </c>
     </row>
     <row r="55">
@@ -8501,19 +8501,19 @@
         <v>361447</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>329200</v>
+        <v>331507</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>394046</v>
+        <v>395663</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2551987306753759</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2324305389881145</v>
+        <v>0.2340591798086376</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2782150801357452</v>
+        <v>0.2793565612027912</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>269</v>
@@ -8522,19 +8522,19 @@
         <v>273361</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>246527</v>
+        <v>248508</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>304496</v>
+        <v>302915</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2648889790226505</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2388872481075323</v>
+        <v>0.2408067325763638</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2950591425721498</v>
+        <v>0.2935275944344596</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>610</v>
@@ -8543,19 +8543,19 @@
         <v>634808</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>596154</v>
+        <v>592149</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>683585</v>
+        <v>681903</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2592832314298992</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2434953833870779</v>
+        <v>0.2418595533913369</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2792058754911459</v>
+        <v>0.2785190106627887</v>
       </c>
     </row>
     <row r="56">
@@ -8572,19 +8572,19 @@
         <v>479861</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>443728</v>
+        <v>443004</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>518390</v>
+        <v>516152</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3388040648699209</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3132926556445216</v>
+        <v>0.3127811411106473</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3660072832766987</v>
+        <v>0.3644272741674435</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>299</v>
@@ -8593,19 +8593,19 @@
         <v>311870</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>283252</v>
+        <v>282900</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>342976</v>
+        <v>343380</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3022049611482797</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2744741895633009</v>
+        <v>0.2741329577532028</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3323472349499201</v>
+        <v>0.3327380825307923</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>744</v>
@@ -8614,19 +8614,19 @@
         <v>791730</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>748342</v>
+        <v>744254</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>842931</v>
+        <v>840381</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3233773119727196</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3056553736334194</v>
+        <v>0.3039859314156927</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3442898146644517</v>
+        <v>0.3432481886780963</v>
       </c>
     </row>
     <row r="57">
